--- a/reportes/tabla_EJmatrizconfusion.xlsx
+++ b/reportes/tabla_EJmatrizconfusion.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francisco/Documents/GitHub/seasonal_forecast/reportes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E3654BE-B4E8-F54B-BB72-E990244C0021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB6FDD2-84A7-7146-8B42-BFD8642CF45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17120" xr2:uid="{115455B8-4E9E-0444-BC36-10D47FF0E46C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>año hidrológico</t>
   </si>
@@ -93,6 +93,33 @@
   </si>
   <si>
     <t>Métrica</t>
+  </si>
+  <si>
+    <t>Observación</t>
+  </si>
+  <si>
+    <t>Positiva</t>
+  </si>
+  <si>
+    <t>Negativa</t>
+  </si>
+  <si>
+    <t>Predicción Positiva</t>
+  </si>
+  <si>
+    <t>Predicción Negativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verdadero Pos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Falso Neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falso Pos   </t>
+  </si>
+  <si>
+    <t>Verdadero Neg</t>
   </si>
 </sst>
 </file>
@@ -164,22 +191,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -497,145 +523,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EF38F8-5C61-B348-8F09-9BEF99E24A56}">
-  <dimension ref="B1:M23"/>
+  <dimension ref="B1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="10">
+      <c r="B2" s="7">
         <v>1990</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <v>1983</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>1998</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>2010</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>2015</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="10">
+      <c r="B7" s="7">
         <v>1992</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="10">
+      <c r="B8" s="7">
         <v>2007</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <v>2017</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="H11" s="1"/>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="6" t="s">
+      <c r="K11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -643,19 +665,19 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="4">
         <v>1</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="3">
         <v>1</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="1">
@@ -664,17 +686,17 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H13" s="5"/>
-      <c r="I13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="H13" s="8"/>
+      <c r="I13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="3">
         <v>2</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="4">
         <v>1</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="3">
         <v>1</v>
       </c>
       <c r="M13" s="1">
@@ -683,17 +705,17 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H14" s="5"/>
-      <c r="I14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="6">
+      <c r="H14" s="8"/>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="4">
         <v>2</v>
       </c>
       <c r="M14" s="1">
@@ -702,7 +724,7 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H15" s="5"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="1" t="s">
         <v>7</v>
       </c>
@@ -723,60 +745,93 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="10:13" x14ac:dyDescent="0.2">
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="10:13" x14ac:dyDescent="0.2">
-      <c r="J19" s="8" t="s">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M19" s="10" t="s">
+      <c r="K19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="10:13" x14ac:dyDescent="0.2">
-      <c r="J20" s="10" t="s">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="M20" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="10:13" x14ac:dyDescent="0.2">
-      <c r="J21" s="10" t="s">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="M21" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="10:13" x14ac:dyDescent="0.2">
-      <c r="J23" s="10" t="s">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
